--- a/data/case1/18/Qlm2_11.xlsx
+++ b/data/case1/18/Qlm2_11.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.25384121705295826</v>
+        <v>-0.25517891189561936</v>
       </c>
       <c r="B1" s="0">
-        <v>0.25356680585096569</v>
+        <v>0.25490260027953582</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18783155991641909</v>
+        <v>-0.18908241624958499</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18715546876789091</v>
+        <v>0.18839250726985757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13744621747067676</v>
+        <v>-0.13868381511172956</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13722059214978621</v>
+        <v>0.13845546900248884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1292205921791485</v>
+        <v>-0.13045546906325711</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12855493226867054</v>
+        <v>0.1297747464865715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12555493228652281</v>
+        <v>-0.12677474652382514</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12326641818625728</v>
+        <v>0.12443134850191928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.024010028332954292</v>
+        <v>-0.025176391358700201</v>
       </c>
       <c r="B6" s="0">
-        <v>0.023707862818390879</v>
+        <v>0.024856132675672882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.013707862861982001</v>
+        <v>-0.014856132766137176</v>
       </c>
       <c r="B7" s="0">
-        <v>0.013644294940143187</v>
+        <v>0.01478762145719692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0072908304657990364</v>
+        <v>0.0065143271619687582</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.00730502509930675</v>
+        <v>-0.0065293257928904502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0093050250773205612</v>
+        <v>0.008529325746759131</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0093135403465516298</v>
+        <v>-0.008537946494823867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.011313540324891846</v>
+        <v>0.010537946449266755</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.011313493779159245</v>
+        <v>-0.010537680698547547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014313493754763762</v>
+        <v>0.013537680647355721</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.014314909301033296</v>
+        <v>-0.013538474244898957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.017814909275416291</v>
+        <v>0.017038474191288788</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.017843530365078575</v>
+        <v>-0.017064074261909035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.021343530340574013</v>
+        <v>0.020564074210523309</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.02137339056456522</v>
+        <v>-0.020591094154868372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.029373390528220078</v>
+        <v>0.028591094079094326</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.02942574267116882</v>
+        <v>-0.028640075395268028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080518690500097634</v>
+        <v>-0.0080516806115298323</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080336825990023897</v>
+        <v>0.0080336587146208061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060336826184608228</v>
+        <v>-0.0060336587556726329</v>
       </c>
       <c r="B16" s="0">
-        <v>0.00600356547676828</v>
+        <v>0.0060033914393278209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003565496659256</v>
+        <v>-0.0040033914813033533</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999974519497</v>
+        <v>0.0039999999465223368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.059735245951980431</v>
+        <v>-0.059820184065689119</v>
       </c>
       <c r="B18" s="0">
-        <v>0.059647386559298354</v>
+        <v>0.059733940752192183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012092084783505097</v>
+        <v>-0.012091661880651028</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017134380597927</v>
+        <v>0.012016688936459907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080171343937447404</v>
+        <v>-0.0080166889635702177</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057356981590999</v>
+        <v>0.0080056937858810073</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057357114324788</v>
+        <v>-0.004005693813286193</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999866049407</v>
+        <v>0.0039999999723647761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045709251313393651</v>
+        <v>-0.045708692191707812</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045496583642407273</v>
+        <v>0.04549642331686421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049658366224218</v>
+        <v>-0.040496423357940792</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098609867671442</v>
+        <v>0.040098496072144663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098609930319533</v>
+        <v>-0.020098496201358174</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999993654189</v>
+        <v>0.019999999869092733</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.09725638987463725</v>
+        <v>-0.09725495718790178</v>
       </c>
       <c r="B25" s="0">
-        <v>0.09713070801690904</v>
+        <v>0.097130207081253417</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094630708040572387</v>
+        <v>-0.09463020713070236</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094469312724076104</v>
+        <v>0.094469388304650792</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091969312748955367</v>
+        <v>-0.091969388356635484</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091016753449339571</v>
+        <v>0.091016045874316109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089016753478301958</v>
+        <v>-0.089016045934916299</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088364482113991727</v>
+        <v>0.088363357229118478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081364482160541485</v>
+        <v>-0.081363357325968444</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081175116101296574</v>
+        <v>0.08117417187944298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021175116294886109</v>
+        <v>-0.021174172278922043</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021024666797789582</v>
+        <v>0.021023682007331512</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014024666847600287</v>
+        <v>-0.014023682111149682</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001563612268342</v>
+        <v>0.014001255957994729</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040015636705152957</v>
+        <v>-0.004001256079172677</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999580828671</v>
+        <v>0.0039999999124464836</v>
       </c>
     </row>
   </sheetData>
